--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_SEA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_SEA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CA$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="262">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -805,7 +805,16 @@
     <t>Singapore</t>
   </si>
   <si>
-    <t>AEON Credit Service (M) Sdn Bhd-test</t>
+    <t>1340576027</t>
+  </si>
+  <si>
+    <t>aworoj675672</t>
+  </si>
+  <si>
+    <t>5334829260</t>
+  </si>
+  <si>
+    <t>aygxbd564691</t>
   </si>
 </sst>
 </file>
@@ -815,7 +824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -858,6 +867,11 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1267,80 +1281,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K31"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1"/>
-    <col min="67" max="69" width="22.33203125" style="2" customWidth="1"/>
-    <col min="70" max="70" width="29.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="26.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="28.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="13" width="23.5" collapsed="true"/>
+    <col min="67" max="69" customWidth="true" style="2" width="22.33203125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="2" width="29.5" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75">
@@ -1614,7 +1628,7 @@
         <v>140</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>91</v>
@@ -1728,8 +1742,8 @@
       <c r="AW2" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX2" s="1">
-        <v>2140999000</v>
+      <c r="AX2" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>110</v>
@@ -1831,7 +1845,7 @@
         <v>140</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>91</v>
@@ -1945,8 +1959,8 @@
       <c r="AW3" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX3" s="1">
-        <v>2140999000</v>
+      <c r="AX3" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>110</v>
@@ -2048,7 +2062,7 @@
         <v>140</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>91</v>
@@ -2162,8 +2176,8 @@
       <c r="AW4" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX4" s="1">
-        <v>2140999000</v>
+      <c r="AX4" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY4" s="12" t="s">
         <v>110</v>
@@ -2265,7 +2279,7 @@
         <v>140</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>91</v>
@@ -2274,10 +2288,10 @@
         <v>117</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>249</v>
@@ -2379,8 +2393,8 @@
       <c r="AW5" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX5" s="1">
-        <v>2140999000</v>
+      <c r="AX5" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY5" s="12" t="s">
         <v>110</v>
@@ -2482,7 +2496,7 @@
         <v>140</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>91</v>
@@ -2491,10 +2505,10 @@
         <v>117</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>249</v>
@@ -2596,8 +2610,8 @@
       <c r="AW6" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX6" s="1">
-        <v>2140999000</v>
+      <c r="AX6" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY6" s="12" t="s">
         <v>110</v>
@@ -2699,7 +2713,7 @@
         <v>140</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>91</v>
@@ -2708,10 +2722,10 @@
         <v>117</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>249</v>
@@ -2813,8 +2827,8 @@
       <c r="AW7" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX7" s="1">
-        <v>2140999000</v>
+      <c r="AX7" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY7" s="12" t="s">
         <v>110</v>
@@ -2916,7 +2930,7 @@
         <v>140</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>91</v>
@@ -3029,8 +3043,8 @@
       <c r="AW8" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX8" s="1">
-        <v>2140999000</v>
+      <c r="AX8" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>110</v>
@@ -3128,7 +3142,7 @@
         <v>140</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>91</v>
@@ -3241,8 +3255,8 @@
       <c r="AW9" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX9" s="1">
-        <v>2140999000</v>
+      <c r="AX9" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>110</v>
@@ -3340,7 +3354,7 @@
         <v>140</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>91</v>
@@ -3453,8 +3467,8 @@
       <c r="AW10" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX10" s="1">
-        <v>2140999000</v>
+      <c r="AX10" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>110</v>
@@ -3552,7 +3566,7 @@
         <v>140</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>91</v>
@@ -3665,8 +3679,8 @@
       <c r="AW11" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX11" s="1">
-        <v>2140999000</v>
+      <c r="AX11" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>110</v>
@@ -3764,7 +3778,7 @@
         <v>140</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>91</v>
@@ -3877,8 +3891,8 @@
       <c r="AW12" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX12" s="1">
-        <v>2140999000</v>
+      <c r="AX12" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>110</v>
@@ -3976,7 +3990,7 @@
         <v>140</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>91</v>
@@ -4089,8 +4103,8 @@
       <c r="AW13" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX13" s="1">
-        <v>2140999000</v>
+      <c r="AX13" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>110</v>
@@ -4188,7 +4202,7 @@
         <v>140</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>91</v>
@@ -4304,8 +4318,8 @@
       <c r="AW14" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX14" s="1">
-        <v>2140999000</v>
+      <c r="AX14" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>110</v>
@@ -4403,7 +4417,7 @@
         <v>140</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>91</v>
@@ -4519,8 +4533,8 @@
       <c r="AW15" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX15" s="1">
-        <v>2140999000</v>
+      <c r="AX15" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>110</v>
@@ -4618,7 +4632,7 @@
         <v>140</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>91</v>
@@ -4734,8 +4748,8 @@
       <c r="AW16" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX16" s="1">
-        <v>2140999000</v>
+      <c r="AX16" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY16" s="1" t="s">
         <v>110</v>
@@ -4833,7 +4847,7 @@
         <v>140</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>91</v>
@@ -4946,8 +4960,8 @@
       <c r="AW17" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX17" s="1">
-        <v>2140999000</v>
+      <c r="AX17" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY17" s="1" t="s">
         <v>110</v>
@@ -5045,7 +5059,7 @@
         <v>140</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>91</v>
@@ -5158,8 +5172,8 @@
       <c r="AW18" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX18" s="1">
-        <v>2140999000</v>
+      <c r="AX18" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY18" s="1" t="s">
         <v>110</v>
@@ -5257,7 +5271,7 @@
         <v>140</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>91</v>
@@ -5370,8 +5384,8 @@
       <c r="AW19" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX19" s="1">
-        <v>2140999000</v>
+      <c r="AX19" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY19" s="1" t="s">
         <v>110</v>
@@ -5469,7 +5483,7 @@
         <v>140</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>91</v>
@@ -5585,8 +5599,8 @@
       <c r="AW20" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX20" s="1">
-        <v>2140999000</v>
+      <c r="AX20" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY20" s="1" t="s">
         <v>110</v>
@@ -5684,7 +5698,7 @@
         <v>140</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>91</v>
@@ -5800,8 +5814,8 @@
       <c r="AW21" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX21" s="1">
-        <v>2140999000</v>
+      <c r="AX21" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY21" s="1" t="s">
         <v>110</v>
@@ -5899,7 +5913,7 @@
         <v>140</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>91</v>
@@ -6015,8 +6029,8 @@
       <c r="AW22" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX22" s="1">
-        <v>2140999000</v>
+      <c r="AX22" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY22" s="1" t="s">
         <v>110</v>
@@ -6114,7 +6128,7 @@
         <v>140</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>91</v>
@@ -6230,8 +6244,8 @@
       <c r="AW23" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX23" s="1">
-        <v>2140999000</v>
+      <c r="AX23" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY23" s="1" t="s">
         <v>110</v>
@@ -6329,7 +6343,7 @@
         <v>140</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>91</v>
@@ -6442,8 +6456,8 @@
       <c r="AW24" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX24" s="1">
-        <v>2140999000</v>
+      <c r="AX24" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY24" s="1" t="s">
         <v>110</v>
@@ -6541,7 +6555,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>91</v>
@@ -6654,8 +6668,8 @@
       <c r="AW25" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX25" s="1">
-        <v>2140999000</v>
+      <c r="AX25" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY25" s="1" t="s">
         <v>110</v>
@@ -6753,7 +6767,7 @@
         <v>140</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>91</v>
@@ -6866,8 +6880,8 @@
       <c r="AW26" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX26" s="1">
-        <v>2140999000</v>
+      <c r="AX26" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY26" s="1" t="s">
         <v>110</v>
@@ -6965,7 +6979,7 @@
         <v>140</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>91</v>
@@ -7078,8 +7092,8 @@
       <c r="AW27" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX27" s="1">
-        <v>2140999000</v>
+      <c r="AX27" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY27" s="1" t="s">
         <v>110</v>
@@ -7177,7 +7191,7 @@
         <v>140</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>91</v>
@@ -7290,8 +7304,8 @@
       <c r="AW28" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX28" s="1">
-        <v>2140999000</v>
+      <c r="AX28" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY28" s="1" t="s">
         <v>110</v>
@@ -7389,7 +7403,7 @@
         <v>140</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>91</v>
@@ -7505,8 +7519,8 @@
       <c r="AW29" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX29" s="1">
-        <v>2140999000</v>
+      <c r="AX29" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY29" s="1" t="s">
         <v>110</v>
@@ -7604,7 +7618,7 @@
         <v>140</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>91</v>
@@ -7720,8 +7734,8 @@
       <c r="AW30" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX30" s="1">
-        <v>2140999000</v>
+      <c r="AX30" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY30" s="1" t="s">
         <v>110</v>
@@ -7819,7 +7833,7 @@
         <v>140</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>91</v>
@@ -7935,8 +7949,8 @@
       <c r="AW31" s="18">
         <v>10631042000</v>
       </c>
-      <c r="AX31" s="1">
-        <v>2140999000</v>
+      <c r="AX31" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="AY31" s="1" t="s">
         <v>110</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_SEA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_SEA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="264">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -815,6 +815,12 @@
   </si>
   <si>
     <t>aygxbd564691</t>
+  </si>
+  <si>
+    <t>4001967730</t>
+  </si>
+  <si>
+    <t>dvdpdy341262</t>
   </si>
 </sst>
 </file>
@@ -824,7 +830,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -867,6 +873,11 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1628,7 +1639,7 @@
         <v>140</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>91</v>
@@ -1743,7 +1754,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>110</v>
@@ -1845,7 +1856,7 @@
         <v>140</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>91</v>
@@ -1960,7 +1971,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>110</v>
@@ -2062,7 +2073,7 @@
         <v>140</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>91</v>
@@ -2177,7 +2188,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY4" s="12" t="s">
         <v>110</v>
@@ -2279,7 +2290,7 @@
         <v>140</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>91</v>
@@ -2394,7 +2405,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY5" s="12" t="s">
         <v>110</v>
@@ -2496,7 +2507,7 @@
         <v>140</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>91</v>
@@ -2611,7 +2622,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY6" s="12" t="s">
         <v>110</v>
@@ -2713,7 +2724,7 @@
         <v>140</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>91</v>
@@ -2828,7 +2839,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY7" s="12" t="s">
         <v>110</v>
@@ -2930,7 +2941,7 @@
         <v>140</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>91</v>
@@ -3044,7 +3055,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>110</v>
@@ -3142,7 +3153,7 @@
         <v>140</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>91</v>
@@ -3256,7 +3267,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>110</v>
@@ -3354,7 +3365,7 @@
         <v>140</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>91</v>
@@ -3468,7 +3479,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>110</v>
@@ -3566,7 +3577,7 @@
         <v>140</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>91</v>
@@ -3680,7 +3691,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>110</v>
@@ -3778,7 +3789,7 @@
         <v>140</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>91</v>
@@ -3892,7 +3903,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>110</v>
@@ -3990,7 +4001,7 @@
         <v>140</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>91</v>
@@ -4104,7 +4115,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>110</v>
@@ -4202,7 +4213,7 @@
         <v>140</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>91</v>
@@ -4319,7 +4330,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>110</v>
@@ -4417,7 +4428,7 @@
         <v>140</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>91</v>
@@ -4534,7 +4545,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>110</v>
@@ -4632,7 +4643,7 @@
         <v>140</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>91</v>
@@ -4749,7 +4760,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY16" s="1" t="s">
         <v>110</v>
@@ -4847,7 +4858,7 @@
         <v>140</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>91</v>
@@ -4961,7 +4972,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY17" s="1" t="s">
         <v>110</v>
@@ -5059,7 +5070,7 @@
         <v>140</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>91</v>
@@ -5173,7 +5184,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY18" s="1" t="s">
         <v>110</v>
@@ -5271,7 +5282,7 @@
         <v>140</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>91</v>
@@ -5385,7 +5396,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY19" s="1" t="s">
         <v>110</v>
@@ -5483,7 +5494,7 @@
         <v>140</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>91</v>
@@ -5600,7 +5611,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY20" s="1" t="s">
         <v>110</v>
@@ -5698,7 +5709,7 @@
         <v>140</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>91</v>
@@ -5815,7 +5826,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY21" s="1" t="s">
         <v>110</v>
@@ -5913,7 +5924,7 @@
         <v>140</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>91</v>
@@ -6030,7 +6041,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX22" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY22" s="1" t="s">
         <v>110</v>
@@ -6128,7 +6139,7 @@
         <v>140</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>91</v>
@@ -6245,7 +6256,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY23" s="1" t="s">
         <v>110</v>
@@ -6343,7 +6354,7 @@
         <v>140</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>91</v>
@@ -6457,7 +6468,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX24" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY24" s="1" t="s">
         <v>110</v>
@@ -6555,7 +6566,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>91</v>
@@ -6669,7 +6680,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY25" s="1" t="s">
         <v>110</v>
@@ -6767,7 +6778,7 @@
         <v>140</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>91</v>
@@ -6881,7 +6892,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX26" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY26" s="1" t="s">
         <v>110</v>
@@ -6979,7 +6990,7 @@
         <v>140</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>91</v>
@@ -7093,7 +7104,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY27" s="1" t="s">
         <v>110</v>
@@ -7191,7 +7202,7 @@
         <v>140</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>91</v>
@@ -7305,7 +7316,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX28" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY28" s="1" t="s">
         <v>110</v>
@@ -7403,7 +7414,7 @@
         <v>140</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>91</v>
@@ -7520,7 +7531,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX29" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY29" s="1" t="s">
         <v>110</v>
@@ -7618,7 +7629,7 @@
         <v>140</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>91</v>
@@ -7735,7 +7746,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY30" s="1" t="s">
         <v>110</v>
@@ -7833,7 +7844,7 @@
         <v>140</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>91</v>
@@ -7950,7 +7961,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX31" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AY31" s="1" t="s">
         <v>110</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_SEA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_SEA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="266">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -821,6 +821,12 @@
   </si>
   <si>
     <t>dvdpdy341262</t>
+  </si>
+  <si>
+    <t>0465572171</t>
+  </si>
+  <si>
+    <t>fbqdfs851092</t>
   </si>
 </sst>
 </file>
@@ -830,7 +836,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -873,6 +879,11 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1639,7 +1650,7 @@
         <v>140</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>91</v>
@@ -1754,7 +1765,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>110</v>
@@ -1856,7 +1867,7 @@
         <v>140</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>91</v>
@@ -1971,7 +1982,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY3" s="12" t="s">
         <v>110</v>
@@ -2073,7 +2084,7 @@
         <v>140</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>91</v>
@@ -2188,7 +2199,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY4" s="12" t="s">
         <v>110</v>
@@ -2290,7 +2301,7 @@
         <v>140</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>91</v>
@@ -2405,7 +2416,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY5" s="12" t="s">
         <v>110</v>
@@ -2507,7 +2518,7 @@
         <v>140</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>91</v>
@@ -2622,7 +2633,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY6" s="12" t="s">
         <v>110</v>
@@ -2724,7 +2735,7 @@
         <v>140</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>91</v>
@@ -2839,7 +2850,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY7" s="12" t="s">
         <v>110</v>
@@ -2941,7 +2952,7 @@
         <v>140</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>91</v>
@@ -3055,7 +3066,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>110</v>
@@ -3153,7 +3164,7 @@
         <v>140</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>91</v>
@@ -3267,7 +3278,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>110</v>
@@ -3365,7 +3376,7 @@
         <v>140</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>91</v>
@@ -3479,7 +3490,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>110</v>
@@ -3577,7 +3588,7 @@
         <v>140</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>91</v>
@@ -3691,7 +3702,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>110</v>
@@ -3789,7 +3800,7 @@
         <v>140</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>91</v>
@@ -3903,7 +3914,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>110</v>
@@ -4001,7 +4012,7 @@
         <v>140</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>91</v>
@@ -4115,7 +4126,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>110</v>
@@ -4213,7 +4224,7 @@
         <v>140</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>91</v>
@@ -4330,7 +4341,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>110</v>
@@ -4428,7 +4439,7 @@
         <v>140</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>91</v>
@@ -4545,7 +4556,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>110</v>
@@ -4643,7 +4654,7 @@
         <v>140</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>91</v>
@@ -4760,7 +4771,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY16" s="1" t="s">
         <v>110</v>
@@ -4858,7 +4869,7 @@
         <v>140</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>91</v>
@@ -4972,7 +4983,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY17" s="1" t="s">
         <v>110</v>
@@ -5070,7 +5081,7 @@
         <v>140</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>91</v>
@@ -5184,7 +5195,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY18" s="1" t="s">
         <v>110</v>
@@ -5282,7 +5293,7 @@
         <v>140</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>91</v>
@@ -5396,7 +5407,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY19" s="1" t="s">
         <v>110</v>
@@ -5494,7 +5505,7 @@
         <v>140</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>91</v>
@@ -5611,7 +5622,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY20" s="1" t="s">
         <v>110</v>
@@ -5709,7 +5720,7 @@
         <v>140</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>91</v>
@@ -5826,7 +5837,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY21" s="1" t="s">
         <v>110</v>
@@ -5924,7 +5935,7 @@
         <v>140</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>91</v>
@@ -6041,7 +6052,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX22" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY22" s="1" t="s">
         <v>110</v>
@@ -6139,7 +6150,7 @@
         <v>140</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>91</v>
@@ -6256,7 +6267,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY23" s="1" t="s">
         <v>110</v>
@@ -6354,7 +6365,7 @@
         <v>140</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>91</v>
@@ -6468,7 +6479,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX24" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY24" s="1" t="s">
         <v>110</v>
@@ -6566,7 +6577,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>91</v>
@@ -6680,7 +6691,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY25" s="1" t="s">
         <v>110</v>
@@ -6778,7 +6789,7 @@
         <v>140</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>91</v>
@@ -6892,7 +6903,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX26" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY26" s="1" t="s">
         <v>110</v>
@@ -6990,7 +7001,7 @@
         <v>140</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>91</v>
@@ -7104,7 +7115,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY27" s="1" t="s">
         <v>110</v>
@@ -7202,7 +7213,7 @@
         <v>140</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>91</v>
@@ -7316,7 +7327,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX28" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY28" s="1" t="s">
         <v>110</v>
@@ -7414,7 +7425,7 @@
         <v>140</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>91</v>
@@ -7531,7 +7542,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX29" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY29" s="1" t="s">
         <v>110</v>
@@ -7629,7 +7640,7 @@
         <v>140</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>91</v>
@@ -7746,7 +7757,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY30" s="1" t="s">
         <v>110</v>
@@ -7844,7 +7855,7 @@
         <v>140</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>91</v>
@@ -7961,7 +7972,7 @@
         <v>10631042000</v>
       </c>
       <c r="AX31" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AY31" s="1" t="s">
         <v>110</v>
